--- a/Plock Stadion/doc/Sieć.xlsx
+++ b/Plock Stadion/doc/Sieć.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Plock Stadion\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\strycht\Crestron\trunk\Plock Stadion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35985C0-1A5C-4699-AA71-546481547079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -51,45 +50,21 @@
     <t>Router TP-Link</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
     <t>Kontroler liteCUE-Basic</t>
   </si>
   <si>
-    <t>192.168.1.21</t>
-  </si>
-  <si>
-    <t>192.168.1.22</t>
-  </si>
-  <si>
     <t>Panel tapCUE-4</t>
   </si>
   <si>
-    <t>192.168.1.31</t>
-  </si>
-  <si>
-    <t>Epson EBL53U</t>
-  </si>
-  <si>
     <t>BluStream MFP112</t>
   </si>
   <si>
     <t>Ecler MIMO1212</t>
   </si>
   <si>
-    <t>192.168.1.32</t>
-  </si>
-  <si>
-    <t>192.168.1.33</t>
-  </si>
-  <si>
     <t>Denon DN500BD</t>
   </si>
   <si>
-    <t>192.168.1.34</t>
-  </si>
-  <si>
     <t>controlCUE-basic-plock</t>
   </si>
   <si>
@@ -103,12 +78,39 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.21</t>
+  </si>
+  <si>
+    <t>192.168.0.22</t>
+  </si>
+  <si>
+    <t>192.168.0.31</t>
+  </si>
+  <si>
+    <t>192.168.0.32</t>
+  </si>
+  <si>
+    <t>192.168.0.33</t>
+  </si>
+  <si>
+    <t>192.168.0.34</t>
+  </si>
+  <si>
+    <t>Sony VPL-PHZ50</t>
+  </si>
+  <si>
+    <t>34 D0 B8 20 11 CE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,26 +430,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -478,151 +480,154 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>5800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3629</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
